--- a/citas/update/ALAJUELA_citas_disponibles.xlsx
+++ b/citas/update/ALAJUELA_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miércoles 24/04/2024</t>
+          <t>Martes 14/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lunes 29/04/2024</t>
+          <t>Miércoles 15/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Martes 30/04/2024</t>
+          <t>Lunes 20/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miércoles 08/05/2024</t>
+          <t>Martes 21/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lunes 13/05/2024</t>
+          <t>Miércoles 22/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Martes 14/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Miércoles 15/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/ALAJUELA_citas_disponibles.xlsx
+++ b/citas/update/ALAJUELA_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martes 14/05/2024</t>
+          <t>Miércoles 15/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miércoles 15/05/2024</t>
+          <t>Lunes 20/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
+          <t>Martes 21/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Miércoles 22/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Martes 04/06/2024</t>
+          <t>Miércoles 05/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/ALAJUELA_citas_disponibles.xlsx
+++ b/citas/update/ALAJUELA_citas_disponibles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,126 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Miércoles 15/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lunes 20/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Martes 21/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Miércoles 22/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lunes 27/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Martes 28/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Miércoles 29/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lunes 03/06/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Martes 04/06/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Miércoles 05/06/2024</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
